--- a/data/current_air_temperature.xlsx
+++ b/data/current_air_temperature.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>hour_utc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="42">
   <si>
     <t>station_code</t>
   </si>
@@ -28,19 +22,31 @@
     <t>station_name</t>
   </si>
   <si>
+    <t>datetime_utc</t>
+  </si>
+  <si>
     <t>air_temp_c</t>
   </si>
   <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>60004LT</t>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>769</t>
   </si>
   <si>
     <t>Puvočiai</t>
@@ -52,7 +58,7 @@
     <t>Verbyliškės</t>
   </si>
   <si>
-    <t>Nemajūnai</t>
+    <t>Nemunaičiai</t>
   </si>
   <si>
     <t>Jašiūnai</t>
@@ -62,6 +68,78 @@
   </si>
   <si>
     <t>Rusnė</t>
+  </si>
+  <si>
+    <t>2025-11-05 00:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 01:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 02:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 03:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 04:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 05:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 06:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 07:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 08:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 09:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 10:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 11:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 12:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 13:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 14:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 15:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 16:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 17:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 18:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 19:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 20:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 21:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 22:00:00</t>
+  </si>
+  <si>
+    <t>2025-11-05 23:00:00</t>
   </si>
 </sst>
 </file>
@@ -419,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,210 +516,2357 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88">
+        <v>-4.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91">
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111">
+        <v>-2.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116">
+        <v>-5.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" t="s">
+        <v>35</v>
+      </c>
+      <c r="D139">
+        <v>-2.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" t="s">
+        <v>37</v>
+      </c>
+      <c r="D141">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>-1.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151">
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>31</v>
+      </c>
+      <c r="D159">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>32</v>
+      </c>
+      <c r="D160">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" t="s">
+        <v>35</v>
+      </c>
+      <c r="D163">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>36</v>
+      </c>
+      <c r="D164">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" t="s">
+        <v>37</v>
+      </c>
+      <c r="D165">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" t="s">
+        <v>38</v>
+      </c>
+      <c r="D166">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>0.6</v>
       </c>
     </row>
   </sheetData>
